--- a/output/fit_clients/fit_round_155.xlsx
+++ b/output/fit_clients/fit_round_155.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1609820187.629085</v>
+        <v>1821959191.369528</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07718177456135807</v>
+        <v>0.1137310172559579</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03638167173070634</v>
+        <v>0.04370031765684591</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>804910036.9301591</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2262760469.770702</v>
+        <v>1935671295.530787</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1703847730972613</v>
+        <v>0.1599839682429358</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03851897227551532</v>
+        <v>0.04796403174876429</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1131380315.604435</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3510663819.474387</v>
+        <v>3821611756.175819</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1462134486987939</v>
+        <v>0.1067059018231917</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02997052614956694</v>
+        <v>0.03109613434753026</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>56</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1755331889.221767</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2701875605.769683</v>
+        <v>3196543983.406317</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1064636931896583</v>
+        <v>0.08645443086546629</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03996441169442795</v>
+        <v>0.0342975791765869</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1350937892.453893</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2000237266.111068</v>
+        <v>2203052806.786138</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09092319019159563</v>
+        <v>0.1276195414403861</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03520261128953836</v>
+        <v>0.03779842483350722</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1000118662.588029</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2142138281.202806</v>
+        <v>2009751110.795538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06873978182387866</v>
+        <v>0.09412826633860581</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04340891736779227</v>
+        <v>0.04787669256737794</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>46</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1071069188.028052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2790153260.083683</v>
+        <v>2594739398.311739</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1368102689115565</v>
+        <v>0.1397375844065974</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02896333763246984</v>
+        <v>0.02480388571816317</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>49</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1395076666.064843</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1982881523.120726</v>
+        <v>1454436576.552746</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1623821307442093</v>
+        <v>0.1237328931171893</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02849403590876412</v>
+        <v>0.02986638085741931</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>991440790.5072591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5904037078.883431</v>
+        <v>3950717789.212293</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1338777767659783</v>
+        <v>0.2066241600274086</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03303262088215735</v>
+        <v>0.03493216155141208</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>65</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2952018708.702138</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2934903723.491413</v>
+        <v>4047648197.684275</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1469208199860277</v>
+        <v>0.1416817876073709</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0372634110077521</v>
+        <v>0.03095549861540184</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>64</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1467451800.111078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2273158247.621547</v>
+        <v>2997660788.066644</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1630421851258891</v>
+        <v>0.1941906226743901</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04743638438098334</v>
+        <v>0.0465012787419349</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>54</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1136579075.243935</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3653191973.364217</v>
+        <v>4211479442.064365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09721921343967529</v>
+        <v>0.08973097705888756</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02059952341427205</v>
+        <v>0.02705589105655641</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>52</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1826596059.194117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2439170395.802013</v>
+        <v>3112770793.62384</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1370442848269582</v>
+        <v>0.1160420041237059</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02828769760475116</v>
+        <v>0.03513197654688773</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>50</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1219585272.919676</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1347988734.856223</v>
+        <v>1762470593.763094</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06832549574777595</v>
+        <v>0.108359603363189</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03246334548620364</v>
+        <v>0.04587168923643604</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>673994418.4290428</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2141853723.588423</v>
+        <v>2442252473.134387</v>
       </c>
       <c r="F16" t="n">
-        <v>0.10178678492052</v>
+        <v>0.1006639240332951</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05086437765875709</v>
+        <v>0.03764720670808844</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>23</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1070926924.57555</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3300590582.771396</v>
+        <v>4536409670.314202</v>
       </c>
       <c r="F17" t="n">
-        <v>0.117472938660043</v>
+        <v>0.1136555273714253</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04133256271896811</v>
+        <v>0.04566271528823709</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>45</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1650295360.471443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3067320265.279419</v>
+        <v>2693508667.29397</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1697868032132317</v>
+        <v>0.1446148314231844</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02146009005518474</v>
+        <v>0.02850403923961834</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1533660157.950045</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1029575651.672493</v>
+        <v>1231339680.264743</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1336523808006959</v>
+        <v>0.126456740908453</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02222041911335104</v>
+        <v>0.02258990128838466</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>514787862.2403998</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2461939128.678104</v>
+        <v>1917552516.464733</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1009827051948695</v>
+        <v>0.1280528286631626</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02292974230946829</v>
+        <v>0.03009073112901483</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1230969541.46071</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1685246175.885203</v>
+        <v>2592385058.723308</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07025889769758285</v>
+        <v>0.08548601062262402</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03806627193632623</v>
+        <v>0.03902818939737609</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>842623153.9766716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2456835923.299373</v>
+        <v>3932443932.702578</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1013902722928369</v>
+        <v>0.1359115066818865</v>
       </c>
       <c r="G22" t="n">
-        <v>0.046870457762222</v>
+        <v>0.04717243983023355</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1228418055.673072</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1255404106.483239</v>
+        <v>1301309001.204987</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1819683119153855</v>
+        <v>0.1234338266131621</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04686497541748436</v>
+        <v>0.05104412695852025</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>627702080.3545235</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2502761043.86449</v>
+        <v>3136471164.026798</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1017752579983381</v>
+        <v>0.1405734216285306</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02480950555631449</v>
+        <v>0.03729035009140351</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>46</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1251380590.573508</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1485877577.51925</v>
+        <v>904759669.3185327</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08392762214663872</v>
+        <v>0.1188925212667662</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02968011439336046</v>
+        <v>0.02270352104877228</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>742938740.9223055</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1437554972.887146</v>
+        <v>1145011845.900507</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09561312185294096</v>
+        <v>0.1069709107350839</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02685521787525962</v>
+        <v>0.02960058052187712</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>718777565.593292</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2968869757.018206</v>
+        <v>4653925252.976385</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1457584026549112</v>
+        <v>0.1077799832968876</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02410167020952347</v>
+        <v>0.02663015136357219</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1484434939.871404</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3822184233.94399</v>
+        <v>3671168485.123102</v>
       </c>
       <c r="F28" t="n">
-        <v>0.113545691876803</v>
+        <v>0.1310586333237964</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03051571441810871</v>
+        <v>0.04352095584306618</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>50</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1911092199.521483</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5109119251.579512</v>
+        <v>3866888957.658637</v>
       </c>
       <c r="F29" t="n">
-        <v>0.104312972368182</v>
+        <v>0.09471199149156853</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03350333221865096</v>
+        <v>0.04565390224114317</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>70</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2554559565.798776</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2110657275.431059</v>
+        <v>1840335361.721459</v>
       </c>
       <c r="F30" t="n">
-        <v>0.126147965529169</v>
+        <v>0.1361284252759619</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03539169203247618</v>
+        <v>0.02988294491432174</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1055328687.766666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1202287314.343272</v>
+        <v>1259582799.4777</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08634461817899285</v>
+        <v>0.07139934459498135</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04829611448616386</v>
+        <v>0.0463393554804816</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>601143608.0612254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1233023549.982127</v>
+        <v>1241180917.279357</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1158149907755811</v>
+        <v>0.1112406860853252</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02938802704347148</v>
+        <v>0.0281986477016309</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>616511788.0185876</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2974260886.806223</v>
+        <v>3107389841.957165</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1915514184760368</v>
+        <v>0.1942178706989497</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04287400751481901</v>
+        <v>0.03896365771513862</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>46</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1487130441.198413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1428574492.31962</v>
+        <v>1172785030.849834</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1013291621546822</v>
+        <v>0.08757518087991971</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01966531976606943</v>
+        <v>0.02228103431189903</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>714287213.7385856</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1251722960.276252</v>
+        <v>830403273.9617192</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07237002621612208</v>
+        <v>0.08143636405936963</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0362263152376668</v>
+        <v>0.03490171294661684</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>625861443.4795754</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3130383032.183631</v>
+        <v>2960472791.935694</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1160335879479291</v>
+        <v>0.1383819019033461</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02692793336916049</v>
+        <v>0.02119359068729454</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1565191487.532325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2778156104.935896</v>
+        <v>1786511231.24545</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08931737068305398</v>
+        <v>0.1009804669701927</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03634573932980372</v>
+        <v>0.04102702439891956</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>42</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1389078186.752529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2142909715.616326</v>
+        <v>1909139065.41938</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07450786526109635</v>
+        <v>0.1169332736063183</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03002742772214937</v>
+        <v>0.03191825359154768</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1071454816.211505</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1743697908.595489</v>
+        <v>1771220313.764386</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1885962262384484</v>
+        <v>0.1473654510306861</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02963054110177115</v>
+        <v>0.03008995767059588</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>871848987.6983001</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1224560074.808043</v>
+        <v>1162913442.630094</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1445998330049474</v>
+        <v>0.1198020717638315</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03727597687394214</v>
+        <v>0.05624608606952831</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>612280072.522947</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1816476713.388945</v>
+        <v>2700493035.966907</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1635252366783641</v>
+        <v>0.1173078264541293</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03423978756685244</v>
+        <v>0.04379473917169583</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>38</v>
-      </c>
-      <c r="J41" t="n">
-        <v>908238448.8142691</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2637466379.336983</v>
+        <v>3456802541.619042</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09968361854891043</v>
+        <v>0.09359395699055736</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04568634102668189</v>
+        <v>0.02990228997344075</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1318733125.118614</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3044780113.231853</v>
+        <v>2056568586.586233</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1365363399958761</v>
+        <v>0.1810785548114971</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02510715995213197</v>
+        <v>0.02264311580010388</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>53</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1522390050.475203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1815598567.547781</v>
+        <v>1675971588.301032</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07001063218222789</v>
+        <v>0.06701653768314825</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03310951516109679</v>
+        <v>0.02388064683018832</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>907799353.2807455</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1826180934.072259</v>
+        <v>2362985051.494993</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1761868303517132</v>
+        <v>0.1308063988473665</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0351305992998647</v>
+        <v>0.04454086635567001</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>913090440.3535955</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3600718557.983164</v>
+        <v>4579330556.976074</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1431194754273853</v>
+        <v>0.1188419610269522</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05528989837006475</v>
+        <v>0.05818628117100388</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>55</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1800359225.622065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3400805324.081788</v>
+        <v>3555140937.564958</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1401544215766728</v>
+        <v>0.1636139335584414</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05275711298496285</v>
+        <v>0.05248743905205177</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>41</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1700402627.192036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3778544228.305598</v>
+        <v>3915363460.254472</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09963182897979697</v>
+        <v>0.0808005935165591</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02780623751863529</v>
+        <v>0.0337877242212619</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>52</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1889272161.338118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1308836528.484637</v>
+        <v>1315059215.198683</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1948397157907696</v>
+        <v>0.1967346349248295</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03918804343811738</v>
+        <v>0.04095236936072143</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>654418325.9410321</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2840856612.655561</v>
+        <v>2660387664.536308</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1238960488658194</v>
+        <v>0.1320567007524863</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04886980381660466</v>
+        <v>0.03272080908581905</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>53</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1420428377.444507</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1094507388.889971</v>
+        <v>1107438428.952646</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1772493684342899</v>
+        <v>0.1737951889900192</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03786178893170468</v>
+        <v>0.03637922337604537</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>547253763.0573152</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3954034862.03551</v>
+        <v>4349408653.673567</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1133628448315503</v>
+        <v>0.1249616943123662</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05760487231752616</v>
+        <v>0.06051115555647813</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>64</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1977017490.168029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2748985389.314713</v>
+        <v>3398025107.613115</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1957168844841505</v>
+        <v>0.1579896845863491</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03017299475199597</v>
+        <v>0.03334751618727005</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>44</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1374492744.354562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4933009833.657486</v>
+        <v>3046720999.944863</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1592065413099683</v>
+        <v>0.1550247619425051</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04440781798244041</v>
+        <v>0.03674878208037944</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>51</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2466505054.109152</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3957356663.203624</v>
+        <v>4493609487.767893</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2051873700833795</v>
+        <v>0.1933740083905944</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02486437560881294</v>
+        <v>0.02207133794319831</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1978678304.61359</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1590333747.192611</v>
+        <v>1630165207.110619</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1341730848391263</v>
+        <v>0.1641559962296949</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05004350765039691</v>
+        <v>0.05735564520465523</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>795166902.4450557</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4028638587.400343</v>
+        <v>4420583601.439166</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1260006971679097</v>
+        <v>0.1368806283653024</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0246642540206526</v>
+        <v>0.0274212236665182</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>49</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2014319384.440495</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1614605488.443443</v>
+        <v>1250122374.256836</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1575501190568346</v>
+        <v>0.124729350792832</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03560838526725534</v>
+        <v>0.03292271413689384</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>807302764.8559297</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4019273183.734323</v>
+        <v>3718650213.966412</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1021245089155771</v>
+        <v>0.09568152892298422</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04948474163286166</v>
+        <v>0.04440789569770219</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2009636566.845386</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3788875842.248139</v>
+        <v>3077843546.034595</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1477612702035979</v>
+        <v>0.1295025426749162</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0250755319196192</v>
+        <v>0.03190369696105602</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1894438074.174423</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2055018665.401074</v>
+        <v>2441734996.019857</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1694549067784539</v>
+        <v>0.1372437404808771</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03306737717602853</v>
+        <v>0.0325159139138432</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1027509402.246083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1960173156.89686</v>
+        <v>1987825085.93441</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1565502530032172</v>
+        <v>0.1383623779188947</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04262913230259054</v>
+        <v>0.0315351390709989</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>980086630.5343828</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4234568434.274716</v>
+        <v>5471896779.015016</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1068576334434529</v>
+        <v>0.1035725782402585</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03260854488684739</v>
+        <v>0.03961013047136453</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>44</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2117284269.006277</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4371413221.20186</v>
+        <v>5192641279.080662</v>
       </c>
       <c r="F64" t="n">
-        <v>0.14584810684508</v>
+        <v>0.1755389793139325</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02505696246225628</v>
+        <v>0.02250597573403866</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>48</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2185706672.538839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5291718855.622877</v>
+        <v>5033021825.329883</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1192903768852269</v>
+        <v>0.1649396145706641</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02574290047029552</v>
+        <v>0.02488761747910567</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>56</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2645859369.289339</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5367083455.178876</v>
+        <v>3924735607.331667</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1029864086385661</v>
+        <v>0.1534280879461382</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03086400588736038</v>
+        <v>0.03486086414752239</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>45</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2683541774.356576</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2587006267.666594</v>
+        <v>3480395905.739732</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07755004459102537</v>
+        <v>0.08489290494209008</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04955896545246757</v>
+        <v>0.0490980651475833</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>49</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1293503187.045969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4514640328.175261</v>
+        <v>5074313375.721766</v>
       </c>
       <c r="F68" t="n">
-        <v>0.100902857189739</v>
+        <v>0.1294553403523103</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04791050275528189</v>
+        <v>0.03478377002985071</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>50</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2257320191.02296</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1892056095.062965</v>
+        <v>1734566072.765568</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1805968250624558</v>
+        <v>0.1688136038443577</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04189948020037054</v>
+        <v>0.04904827973579855</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>946028038.4724501</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2428563725.869698</v>
+        <v>2867223820.538298</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07634626693458431</v>
+        <v>0.09946691846761818</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04712123120273736</v>
+        <v>0.03721911305415606</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>44</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1214281802.769923</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5221916081.052028</v>
+        <v>5212456289.374904</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1385491407299967</v>
+        <v>0.1310217148897767</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02767824034484904</v>
+        <v>0.0212388281720539</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>56</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2610958162.790317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1948777125.098925</v>
+        <v>1833105156.736322</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09343308887455687</v>
+        <v>0.09134736590904836</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0408034103750235</v>
+        <v>0.03966121398981515</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>974388517.1181591</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2427835198.165078</v>
+        <v>2161909381.713801</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1072883822009738</v>
+        <v>0.09083425011414845</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04364432408548834</v>
+        <v>0.03459456209066247</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>58</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1213917647.401124</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2702374271.65921</v>
+        <v>2474778219.540969</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1428527296947491</v>
+        <v>0.1253453441951982</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02600794700011109</v>
+        <v>0.02956947986393723</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>53</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1351187226.932002</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2109380187.299792</v>
+        <v>1606873499.732684</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1457069565594717</v>
+        <v>0.1617416471057379</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03171515620956523</v>
+        <v>0.03559503773047187</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1054690047.499363</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3794256742.190553</v>
+        <v>3519377198.829173</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1073028615956942</v>
+        <v>0.1231126657943603</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02985245859011065</v>
+        <v>0.0292281862843101</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>34</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1897128347.116695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1809669161.215134</v>
+        <v>1997030890.030072</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1429398827940776</v>
+        <v>0.1681844139157261</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02347569604833303</v>
+        <v>0.02686481680282645</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>904834613.9656006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4767950452.518738</v>
+        <v>4000582711.533314</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1102770596621701</v>
+        <v>0.09676007455998378</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05644226418620103</v>
+        <v>0.04140878318889201</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>54</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2383975137.010105</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1204384133.200832</v>
+        <v>1213699381.422695</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1598478022355827</v>
+        <v>0.1710735560867739</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03254259069046907</v>
+        <v>0.0402751810859517</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>602192049.0362055</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5381436801.665505</v>
+        <v>3892931659.895931</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09561483411491215</v>
+        <v>0.1099861190316838</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02522994343439841</v>
+        <v>0.03496199664400827</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>32</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2690718468.965163</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3810873991.157929</v>
+        <v>4323044933.897579</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1345467008493736</v>
+        <v>0.08566911583112947</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02995836833989042</v>
+        <v>0.02930981492695556</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1905436951.737287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4701838327.68353</v>
+        <v>4692335183.891864</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1395748700912211</v>
+        <v>0.1315082406660805</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02840130988523018</v>
+        <v>0.01830339638890078</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2350919164.360353</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1739063105.802019</v>
+        <v>2092315947.638868</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1282103081637573</v>
+        <v>0.1075427158275942</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04056831563175034</v>
+        <v>0.04487580625345648</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>869531505.7304021</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1846718418.450712</v>
+        <v>2373573436.864511</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1160660875877523</v>
+        <v>0.1108005689309826</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04575698749107023</v>
+        <v>0.03505422846179084</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>923359236.6280445</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3660383215.268875</v>
+        <v>2293338887.791503</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1511334574755566</v>
+        <v>0.1509210555123345</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05161152988366671</v>
+        <v>0.04781092877994624</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>58</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1830191740.644327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2476341592.66424</v>
+        <v>1951875356.917185</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1665254278143596</v>
+        <v>0.1326401141589145</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01778414567408479</v>
+        <v>0.02391310986016195</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1238170890.1401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1406879367.248693</v>
+        <v>1321329158.833643</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1145633628499981</v>
+        <v>0.1645668457343821</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03167871581768745</v>
+        <v>0.03710537704067444</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>703439792.2006072</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3250022448.823122</v>
+        <v>3277730833.556352</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1707359630677704</v>
+        <v>0.1647305510613644</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02634422858280184</v>
+        <v>0.03509440611639088</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>61</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1625011279.525938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2444350082.669205</v>
+        <v>3455998169.934812</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1062725236679554</v>
+        <v>0.1533204390549191</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02613981894947767</v>
+        <v>0.04002385325507074</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>53</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1222175120.152067</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1584657252.215795</v>
+        <v>1921003616.128439</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1043678113680254</v>
+        <v>0.130656318559269</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05071362688981045</v>
+        <v>0.05225488040732999</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>792328620.297278</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1346498123.11257</v>
+        <v>1662474636.633794</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1899647703848185</v>
+        <v>0.1192150616835326</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05408045203127614</v>
+        <v>0.05545832846231297</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>673249120.9062171</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1954046630.747528</v>
+        <v>1845578757.983523</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06679432833455654</v>
+        <v>0.0966229120454941</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03889439514352711</v>
+        <v>0.03725452527231675</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>38</v>
-      </c>
-      <c r="J92" t="n">
-        <v>977023258.0303904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4989493190.323515</v>
+        <v>4118463064.082986</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1014476799278594</v>
+        <v>0.10026716630505</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04207487216693451</v>
+        <v>0.04194668096152128</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>46</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2494746531.758976</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1878592458.283352</v>
+        <v>2111051381.797008</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1017165025144407</v>
+        <v>0.1440079455559416</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04149488668936519</v>
+        <v>0.03318201022746491</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>939296211.6262172</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2113802448.260294</v>
+        <v>2068534965.838196</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09941163163272043</v>
+        <v>0.1216596464167011</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04411249421248921</v>
+        <v>0.03888272759591968</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>37</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1056901288.297257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1961895019.647714</v>
+        <v>1446267201.221632</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09833950268217928</v>
+        <v>0.1383746870908631</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04537801380035963</v>
+        <v>0.04068769314230535</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>980947500.8256755</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5246128837.022485</v>
+        <v>4932883959.809544</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1634154325732357</v>
+        <v>0.1701754720133855</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01913881600606314</v>
+        <v>0.02564796177922169</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2623064575.063403</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3099752240.750429</v>
+        <v>3943379999.070052</v>
       </c>
       <c r="F98" t="n">
-        <v>0.104780531368998</v>
+        <v>0.07961584967420603</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02421121552503544</v>
+        <v>0.03205434364965876</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>41</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1549876111.801221</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2816646932.723577</v>
+        <v>2100615510.970621</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09642847058189769</v>
+        <v>0.132879863290802</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02210594107146922</v>
+        <v>0.02277055679976488</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>50</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1408323438.969986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4276125601.17002</v>
+        <v>4597313935.063916</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1480524422001725</v>
+        <v>0.141880091844275</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01930197433584198</v>
+        <v>0.02094933358307646</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>47</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2138062893.267997</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2922685371.253476</v>
+        <v>3049162268.080486</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1817307179072243</v>
+        <v>0.2002203104409211</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04746144555846322</v>
+        <v>0.05474232692575646</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>64</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1461342764.469704</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_155.xlsx
+++ b/output/fit_clients/fit_round_155.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1821959191.369528</v>
+        <v>1817204371.625798</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1137310172559579</v>
+        <v>0.08021813515013716</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04370031765684591</v>
+        <v>0.04400646249575676</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1935671295.530787</v>
+        <v>2058367078.678295</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1599839682429358</v>
+        <v>0.1573249856472826</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04796403174876429</v>
+        <v>0.03164941575989575</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3821611756.175819</v>
+        <v>4085684732.786494</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1067059018231917</v>
+        <v>0.1427068715304678</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03109613434753026</v>
+        <v>0.03796797164891975</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3196543983.406317</v>
+        <v>4188787019.943597</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08645443086546629</v>
+        <v>0.07443056984548976</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0342975791765869</v>
+        <v>0.0480581807465912</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2203052806.786138</v>
+        <v>2342567343.119753</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1276195414403861</v>
+        <v>0.09324234875422863</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03779842483350722</v>
+        <v>0.03753309334446628</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2009751110.795538</v>
+        <v>2224488005.759415</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09412826633860581</v>
+        <v>0.09716702584967228</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04787669256737794</v>
+        <v>0.04810833035781645</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2594739398.311739</v>
+        <v>2785179820.201742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1397375844065974</v>
+        <v>0.1906220885086728</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02480388571816317</v>
+        <v>0.02168839242189437</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1454436576.552746</v>
+        <v>1704165155.970994</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1237328931171893</v>
+        <v>0.1625416235448818</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02986638085741931</v>
+        <v>0.0331751782092529</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3950717789.212293</v>
+        <v>4914722907.319299</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2066241600274086</v>
+        <v>0.206646152931201</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03493216155141208</v>
+        <v>0.04149998398497842</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4047648197.684275</v>
+        <v>3836399714.667241</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1416817876073709</v>
+        <v>0.1896944017966594</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03095549861540184</v>
+        <v>0.03875887586666174</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2997660788.066644</v>
+        <v>2824160124.493986</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1941906226743901</v>
+        <v>0.1383133544195871</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0465012787419349</v>
+        <v>0.05230804208611782</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4211479442.064365</v>
+        <v>5173122719.818788</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08973097705888756</v>
+        <v>0.06638408316461189</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02705589105655641</v>
+        <v>0.02416540028857272</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3112770793.62384</v>
+        <v>2944615845.676883</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1160420041237059</v>
+        <v>0.1482155774766001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03513197654688773</v>
+        <v>0.04243997701492316</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1762470593.763094</v>
+        <v>1728137936.383813</v>
       </c>
       <c r="F15" t="n">
-        <v>0.108359603363189</v>
+        <v>0.1035690688164514</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04587168923643604</v>
+        <v>0.04352423446087987</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2442252473.134387</v>
+        <v>2711108342.824022</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1006639240332951</v>
+        <v>0.1162035597794398</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03764720670808844</v>
+        <v>0.03352251966946515</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4536409670.314202</v>
+        <v>4193201117.650494</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1136555273714253</v>
+        <v>0.1429046726400845</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04566271528823709</v>
+        <v>0.0506986770204584</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2693508667.29397</v>
+        <v>2414283212.537937</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1446148314231844</v>
+        <v>0.1189025945560527</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02850403923961834</v>
+        <v>0.02708134364003585</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1231339680.264743</v>
+        <v>1085900889.954821</v>
       </c>
       <c r="F19" t="n">
-        <v>0.126456740908453</v>
+        <v>0.1271648471685212</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02258990128838466</v>
+        <v>0.01735546506597868</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1917552516.464733</v>
+        <v>2775739663.780572</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1280528286631626</v>
+        <v>0.1224858440201874</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03009073112901483</v>
+        <v>0.02900068550491658</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2592385058.723308</v>
+        <v>1972210294.705514</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08548601062262402</v>
+        <v>0.09121514761141127</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03902818939737609</v>
+        <v>0.02863101911508567</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3932443932.702578</v>
+        <v>3751192724.461423</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1359115066818865</v>
+        <v>0.1155313703265918</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04717243983023355</v>
+        <v>0.04023771482042763</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1301309001.204987</v>
+        <v>1252556169.576</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1234338266131621</v>
+        <v>0.1694559525762365</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05104412695852025</v>
+        <v>0.0397884009863138</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3136471164.026798</v>
+        <v>3304566285.517462</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1405734216285306</v>
+        <v>0.09614899695712981</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03729035009140351</v>
+        <v>0.02745652762112902</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>904759669.3185327</v>
+        <v>1287013918.039219</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1188925212667662</v>
+        <v>0.08455124052523098</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02270352104877228</v>
+        <v>0.02751019427976267</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1145011845.900507</v>
+        <v>1344514652.72972</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1069709107350839</v>
+        <v>0.08417319810149539</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02960058052187712</v>
+        <v>0.02770620733185988</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4653925252.976385</v>
+        <v>4497711152.012619</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1077799832968876</v>
+        <v>0.1443222357046609</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02663015136357219</v>
+        <v>0.01898733279725522</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3671168485.123102</v>
+        <v>2765887558.730899</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1310586333237964</v>
+        <v>0.142022315654467</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04352095584306618</v>
+        <v>0.03201939378027895</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3866888957.658637</v>
+        <v>4657418083.016792</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09471199149156853</v>
+        <v>0.1078973043555783</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04565390224114317</v>
+        <v>0.04044524932970983</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1840335361.721459</v>
+        <v>1745555357.95114</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1361284252759619</v>
+        <v>0.1156969414572128</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02988294491432174</v>
+        <v>0.02886766163511779</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1259582799.4777</v>
+        <v>1226891572.259957</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07139934459498135</v>
+        <v>0.08654706869988765</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0463393554804816</v>
+        <v>0.04504614090382515</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1241180917.279357</v>
+        <v>1856206702.126274</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1112406860853252</v>
+        <v>0.1099856615874947</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0281986477016309</v>
+        <v>0.03544408723870723</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3107389841.957165</v>
+        <v>1982911181.942695</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1942178706989497</v>
+        <v>0.1643189854937618</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03896365771513862</v>
+        <v>0.05261493788458273</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1172785030.849834</v>
+        <v>1074783749.497213</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08757518087991971</v>
+        <v>0.1172778950385471</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02228103431189903</v>
+        <v>0.02536938935019914</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>830403273.9617192</v>
+        <v>1194127088.970546</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08143636405936963</v>
+        <v>0.1061873563507367</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03490171294661684</v>
+        <v>0.03911671881723499</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2960472791.935694</v>
+        <v>1966795627.373017</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1383819019033461</v>
+        <v>0.1490576879553643</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02119359068729454</v>
+        <v>0.02502743838487565</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1786511231.24545</v>
+        <v>2119278719.065174</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1009804669701927</v>
+        <v>0.07156777435815201</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04102702439891956</v>
+        <v>0.02862206161546252</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1909139065.41938</v>
+        <v>1354664142.379808</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1169332736063183</v>
+        <v>0.1087299516392666</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03191825359154768</v>
+        <v>0.02703365970126765</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1771220313.764386</v>
+        <v>1957080821.254324</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1473654510306861</v>
+        <v>0.1279503321927627</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03008995767059588</v>
+        <v>0.02975242008551629</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1162913442.630094</v>
+        <v>1652777678.193039</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1198020717638315</v>
+        <v>0.1194725781137608</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05624608606952831</v>
+        <v>0.05186785306951825</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2700493035.966907</v>
+        <v>2406376768.41485</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1173078264541293</v>
+        <v>0.137087344854204</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04379473917169583</v>
+        <v>0.0415045405289981</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3456802541.619042</v>
+        <v>2675923293.340242</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09359395699055736</v>
+        <v>0.1164406700434452</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02990228997344075</v>
+        <v>0.03491643782095558</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2056568586.586233</v>
+        <v>2734100329.436936</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1810785548114971</v>
+        <v>0.1311243305829941</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02264311580010388</v>
+        <v>0.01759939917864709</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1675971588.301032</v>
+        <v>1952458577.016769</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06701653768314825</v>
+        <v>0.08203370009432348</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02388064683018832</v>
+        <v>0.02483443305402053</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2362985051.494993</v>
+        <v>1534547147.380377</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1308063988473665</v>
+        <v>0.1194346777104217</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04454086635567001</v>
+        <v>0.0393491456180686</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4579330556.976074</v>
+        <v>4382366688.670615</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1188419610269522</v>
+        <v>0.1462351420182655</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05818628117100388</v>
+        <v>0.03900306124174788</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3555140937.564958</v>
+        <v>4817747041.727468</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1636139335584414</v>
+        <v>0.1961289381697484</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05248743905205177</v>
+        <v>0.04914788540906925</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3915363460.254472</v>
+        <v>4655997200.946604</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0808005935165591</v>
+        <v>0.06877795816638831</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0337877242212619</v>
+        <v>0.03713366194556462</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1315059215.198683</v>
+        <v>1934918349.625498</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1967346349248295</v>
+        <v>0.1671173981124777</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04095236936072143</v>
+        <v>0.03723768463811985</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2660387664.536308</v>
+        <v>3117827560.752572</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1320567007524863</v>
+        <v>0.1534632497294112</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03272080908581905</v>
+        <v>0.05336605743876267</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1107438428.952646</v>
+        <v>1092728044.386255</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1737951889900192</v>
+        <v>0.1432654800541498</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03637922337604537</v>
+        <v>0.05216327381785808</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4349408653.673567</v>
+        <v>3393100458.060472</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1249616943123662</v>
+        <v>0.1067966677853978</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06051115555647813</v>
+        <v>0.0477168984725727</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3398025107.613115</v>
+        <v>3674939441.885934</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1579896845863491</v>
+        <v>0.1789943206799514</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03334751618727005</v>
+        <v>0.02510792400762141</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3046720999.944863</v>
+        <v>3520750244.48606</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1550247619425051</v>
+        <v>0.1062105968932678</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03674878208037944</v>
+        <v>0.04823462365269071</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4493609487.767893</v>
+        <v>3986128863.514548</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1933740083905944</v>
+        <v>0.1522822718785252</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02207133794319831</v>
+        <v>0.03161930161062099</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1630165207.110619</v>
+        <v>1141205139.172924</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1641559962296949</v>
+        <v>0.1260532041572039</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05735564520465523</v>
+        <v>0.04323520057208841</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4420583601.439166</v>
+        <v>4100933900.213704</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1368806283653024</v>
+        <v>0.1299798068612768</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0274212236665182</v>
+        <v>0.01927652761732328</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1250122374.256836</v>
+        <v>1625074570.589506</v>
       </c>
       <c r="F58" t="n">
-        <v>0.124729350792832</v>
+        <v>0.1428805964257896</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03292271413689384</v>
+        <v>0.02789227542732133</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3718650213.966412</v>
+        <v>3473752485.982379</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09568152892298422</v>
+        <v>0.09250030039445672</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04440789569770219</v>
+        <v>0.04522183561580728</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3077843546.034595</v>
+        <v>3665885955.359592</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1295025426749162</v>
+        <v>0.1581589963379153</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03190369696105602</v>
+        <v>0.02079069451212008</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2441734996.019857</v>
+        <v>2353552676.597965</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1372437404808771</v>
+        <v>0.1411192754655484</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0325159139138432</v>
+        <v>0.02883445194028871</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1987825085.93441</v>
+        <v>1426123605.453259</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1383623779188947</v>
+        <v>0.1236769188387178</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0315351390709989</v>
+        <v>0.03823587637789203</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5471896779.015016</v>
+        <v>3426588024.823311</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1035725782402585</v>
+        <v>0.08376181163965189</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03961013047136453</v>
+        <v>0.04140856900938103</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5192641279.080662</v>
+        <v>4734452197.029352</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1755389793139325</v>
+        <v>0.1651864543287167</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02250597573403866</v>
+        <v>0.03056093223472606</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5033021825.329883</v>
+        <v>4821752639.986954</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1649396145706641</v>
+        <v>0.1221418337770955</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02488761747910567</v>
+        <v>0.02919191444337172</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3924735607.331667</v>
+        <v>4125210513.167596</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1534280879461382</v>
+        <v>0.1489922020625437</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03486086414752239</v>
+        <v>0.03779624725806514</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3480395905.739732</v>
+        <v>3094525204.901168</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08489290494209008</v>
+        <v>0.09893922746885461</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0490980651475833</v>
+        <v>0.0374025402552626</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5074313375.721766</v>
+        <v>3701076818.669316</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1294553403523103</v>
+        <v>0.127539891960248</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03478377002985071</v>
+        <v>0.03497674998918365</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1734566072.765568</v>
+        <v>1953310821.526351</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1688136038443577</v>
+        <v>0.1312241860439875</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04904827973579855</v>
+        <v>0.0440432449053554</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2867223820.538298</v>
+        <v>2909474151.136394</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09946691846761818</v>
+        <v>0.06357419440756903</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03721911305415606</v>
+        <v>0.03709212947200291</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5212456289.374904</v>
+        <v>4241857227.837078</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1310217148897767</v>
+        <v>0.128978801642793</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0212388281720539</v>
+        <v>0.03403652247013276</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1833105156.736322</v>
+        <v>1661564179.592086</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09134736590904836</v>
+        <v>0.06734843791763054</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03966121398981515</v>
+        <v>0.03703100263905987</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2161909381.713801</v>
+        <v>2790818402.380096</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09083425011414845</v>
+        <v>0.09833071082338826</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03459456209066247</v>
+        <v>0.03372564057388013</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2474778219.540969</v>
+        <v>2868612165.59797</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1253453441951982</v>
+        <v>0.1804980342765525</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02956947986393723</v>
+        <v>0.03550584290041432</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1606873499.732684</v>
+        <v>2396068678.156887</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1617416471057379</v>
+        <v>0.1591065306313379</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03559503773047187</v>
+        <v>0.03351427330883774</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3519377198.829173</v>
+        <v>3984285659.256682</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1231126657943603</v>
+        <v>0.07831505225541029</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0292281862843101</v>
+        <v>0.0285826462141028</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1997030890.030072</v>
+        <v>2085136133.37608</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1681844139157261</v>
+        <v>0.1371752305576309</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02686481680282645</v>
+        <v>0.02211394453276735</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4000582711.533314</v>
+        <v>3794456191.959905</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09676007455998378</v>
+        <v>0.1257211442322602</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04140878318889201</v>
+        <v>0.05667050827539714</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1213699381.422695</v>
+        <v>1163693882.323943</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1710735560867739</v>
+        <v>0.1368217395918379</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0402751810859517</v>
+        <v>0.02506439142003236</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3892931659.895931</v>
+        <v>4613337218.674645</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1099861190316838</v>
+        <v>0.08646529960076052</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03496199664400827</v>
+        <v>0.03627884505260891</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4323044933.897579</v>
+        <v>3499329855.982446</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08566911583112947</v>
+        <v>0.09479986728922653</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02930981492695556</v>
+        <v>0.02732006992840014</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4692335183.891864</v>
+        <v>5363609485.282143</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1315082406660805</v>
+        <v>0.1420174791285025</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01830339638890078</v>
+        <v>0.01823309531622736</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2092315947.638868</v>
+        <v>2374851783.124333</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1075427158275942</v>
+        <v>0.1199545008376575</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04487580625345648</v>
+        <v>0.03514110014655503</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2373573436.864511</v>
+        <v>2241256841.232271</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1108005689309826</v>
+        <v>0.09086699553856042</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03505422846179084</v>
+        <v>0.03207038171112752</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2293338887.791503</v>
+        <v>3031600789.457314</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1509210555123345</v>
+        <v>0.1327373247373589</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04781092877994624</v>
+        <v>0.05233430714181091</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1951875356.917185</v>
+        <v>1808757004.705648</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1326401141589145</v>
+        <v>0.1595321245358381</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02391310986016195</v>
+        <v>0.02348863238102031</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1321329158.833643</v>
+        <v>1231775296.429068</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1645668457343821</v>
+        <v>0.1676409705575377</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03710537704067444</v>
+        <v>0.04408850307480262</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3277730833.556352</v>
+        <v>2570496171.970341</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1647305510613644</v>
+        <v>0.1291576803068945</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03509440611639088</v>
+        <v>0.0301927421679983</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3455998169.934812</v>
+        <v>2671749826.916281</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1533204390549191</v>
+        <v>0.09663436837898352</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04002385325507074</v>
+        <v>0.02665509393431708</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1921003616.128439</v>
+        <v>2021138695.638376</v>
       </c>
       <c r="F90" t="n">
-        <v>0.130656318559269</v>
+        <v>0.09328407677847331</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05225488040732999</v>
+        <v>0.05124339050341762</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1662474636.633794</v>
+        <v>1784287846.880446</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1192150616835326</v>
+        <v>0.1214040068519699</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05545832846231297</v>
+        <v>0.0398651124211848</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1845578757.983523</v>
+        <v>2195265888.340802</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0966229120454941</v>
+        <v>0.1001304177718048</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03725452527231675</v>
+        <v>0.02936564231943057</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4118463064.082986</v>
+        <v>4368456925.433375</v>
       </c>
       <c r="F93" t="n">
-        <v>0.10026716630505</v>
+        <v>0.09328320696182488</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04194668096152128</v>
+        <v>0.05280062437323874</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2111051381.797008</v>
+        <v>2112002807.420938</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1440079455559416</v>
+        <v>0.1130528512658534</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03318201022746491</v>
+        <v>0.0393988172497516</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2068534965.838196</v>
+        <v>2683945526.356352</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1216596464167011</v>
+        <v>0.1321291486216221</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03888272759591968</v>
+        <v>0.04073856942445542</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1446267201.221632</v>
+        <v>2131261450.773699</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1383746870908631</v>
+        <v>0.1161904752875158</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04068769314230535</v>
+        <v>0.03897168284471422</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4932883959.809544</v>
+        <v>4745593490.586895</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1701754720133855</v>
+        <v>0.1729695897886499</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02564796177922169</v>
+        <v>0.01825955431666566</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3943379999.070052</v>
+        <v>3751686083.511096</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07961584967420603</v>
+        <v>0.1144541011823265</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03205434364965876</v>
+        <v>0.03155789872763941</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2100615510.970621</v>
+        <v>2112513529.31313</v>
       </c>
       <c r="F99" t="n">
-        <v>0.132879863290802</v>
+        <v>0.1317577797204165</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02277055679976488</v>
+        <v>0.02821057199049263</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4597313935.063916</v>
+        <v>4010396107.014234</v>
       </c>
       <c r="F100" t="n">
-        <v>0.141880091844275</v>
+        <v>0.1239635710844191</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02094933358307646</v>
+        <v>0.01818694302699514</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3049162268.080486</v>
+        <v>3176064364.498724</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2002203104409211</v>
+        <v>0.1418615098556278</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05474232692575646</v>
+        <v>0.03753915142920328</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_155.xlsx
+++ b/output/fit_clients/fit_round_155.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1817204371.625798</v>
+        <v>2244110387.734955</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08021813515013716</v>
+        <v>0.1124279986648754</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04400646249575676</v>
+        <v>0.04095886204330335</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2058367078.678295</v>
+        <v>1898764274.394987</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1573249856472826</v>
+        <v>0.1582357779224485</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03164941575989575</v>
+        <v>0.03922807918737938</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4085684732.786494</v>
+        <v>5191533959.144355</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1427068715304678</v>
+        <v>0.1548635971674596</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03796797164891975</v>
+        <v>0.02948929760378269</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>87</v>
+      </c>
+      <c r="J4" t="n">
+        <v>155</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4188787019.943597</v>
+        <v>3889064681.020161</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07443056984548976</v>
+        <v>0.07932137257436843</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0480581807465912</v>
+        <v>0.04451740380025402</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>63</v>
+      </c>
+      <c r="J5" t="n">
+        <v>155</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2342567343.119753</v>
+        <v>1832946961.858488</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09324234875422863</v>
+        <v>0.1464491403379064</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03753309334446628</v>
+        <v>0.03931175460229933</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2224488005.759415</v>
+        <v>1981350933.185201</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09716702584967228</v>
+        <v>0.08023631508375385</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04810833035781645</v>
+        <v>0.04382935935702592</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2785179820.201742</v>
+        <v>3445965626.073988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1906220885086728</v>
+        <v>0.2025049951358102</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02168839242189437</v>
+        <v>0.02794247735277443</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>154</v>
+      </c>
+      <c r="K8" t="n">
+        <v>74.13279535945846</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1704165155.970994</v>
+        <v>1549650852.033668</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625416235448818</v>
+        <v>0.1479192235682882</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0331751782092529</v>
+        <v>0.03529109251231188</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4914722907.319299</v>
+        <v>5511147730.23314</v>
       </c>
       <c r="F10" t="n">
-        <v>0.206646152931201</v>
+        <v>0.2071703060957598</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149998398497842</v>
+        <v>0.03648837277757438</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>142</v>
+      </c>
+      <c r="J10" t="n">
+        <v>155</v>
+      </c>
+      <c r="K10" t="n">
+        <v>151.1969999433729</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3836399714.667241</v>
+        <v>3086650493.785958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1896944017966594</v>
+        <v>0.1250978360819783</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03875887586666174</v>
+        <v>0.04155547096442212</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>154</v>
+      </c>
+      <c r="K11" t="n">
+        <v>63.8089221913368</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2824160124.493986</v>
+        <v>2923585874.184021</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1383133544195871</v>
+        <v>0.1832329805685905</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05230804208611782</v>
+        <v>0.04643100408245702</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5173122719.818788</v>
+        <v>4255190839.830274</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06638408316461189</v>
+        <v>0.07794332711598621</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02416540028857272</v>
+        <v>0.02251640369923475</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>155</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2944615845.676883</v>
+        <v>3324111566.667612</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1482155774766001</v>
+        <v>0.172852316012905</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04243997701492316</v>
+        <v>0.03411664277889549</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>151</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1728137936.383813</v>
+        <v>1353337585.382276</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1035690688164514</v>
+        <v>0.08711897731673943</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04352423446087987</v>
+        <v>0.04671860869178372</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2711108342.824022</v>
+        <v>2330157211.363354</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1162035597794398</v>
+        <v>0.09280967618865522</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03352251966946515</v>
+        <v>0.03736933138453793</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4193201117.650494</v>
+        <v>4809782945.571308</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1429046726400845</v>
+        <v>0.1316167119912597</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0506986770204584</v>
+        <v>0.04968289641723771</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>154</v>
+      </c>
+      <c r="K17" t="n">
+        <v>124.8973854190605</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2414283212.537937</v>
+        <v>3387118897.401587</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1189025945560527</v>
+        <v>0.1198037566998196</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02708134364003585</v>
+        <v>0.03307015531510326</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>38</v>
+      </c>
+      <c r="J18" t="n">
+        <v>155</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1085900889.954821</v>
+        <v>1177497660.197332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1271648471685212</v>
+        <v>0.1454030525232947</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01735546506597868</v>
+        <v>0.02741589582943242</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2775739663.780572</v>
+        <v>1740632468.567533</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1224858440201874</v>
+        <v>0.1150231794034045</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02900068550491658</v>
+        <v>0.02810840701127796</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1972210294.705514</v>
+        <v>2586673114.775254</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09121514761141127</v>
+        <v>0.08646566209471386</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02863101911508567</v>
+        <v>0.04206083021514483</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3751192724.461423</v>
+        <v>2738115000.03896</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1155313703265918</v>
+        <v>0.131957983157095</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04023771482042763</v>
+        <v>0.05150136756416144</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>39</v>
+      </c>
+      <c r="J22" t="n">
+        <v>153</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1252556169.576</v>
+        <v>1203285043.025256</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1694559525762365</v>
+        <v>0.1645855255731288</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0397884009863138</v>
+        <v>0.0454542700951834</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3304566285.517462</v>
+        <v>2672528463.246625</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09614899695712981</v>
+        <v>0.1405166847704075</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02745652762112902</v>
+        <v>0.03138487047708048</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>46</v>
+      </c>
+      <c r="J24" t="n">
+        <v>154</v>
+      </c>
+      <c r="K24" t="n">
+        <v>40.41187914039834</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1287013918.039219</v>
+        <v>1476022966.160011</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08455124052523098</v>
+        <v>0.08389945706420307</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02751019427976267</v>
+        <v>0.02820318534765189</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1344514652.72972</v>
+        <v>1454862605.656456</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08417319810149539</v>
+        <v>0.09332495524672442</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02770620733185988</v>
+        <v>0.02623325760876652</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4497711152.012619</v>
+        <v>4099813884.508494</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1443222357046609</v>
+        <v>0.1455670279399167</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01898733279725522</v>
+        <v>0.01971835906651686</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>61</v>
+      </c>
+      <c r="J27" t="n">
+        <v>155</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2765887558.730899</v>
+        <v>2846398425.099321</v>
       </c>
       <c r="F28" t="n">
-        <v>0.142022315654467</v>
+        <v>0.11304065570204</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03201939378027895</v>
+        <v>0.03992707381502293</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4657418083.016792</v>
+        <v>4606840768.758872</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1078973043555783</v>
+        <v>0.1485940101308265</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04044524932970983</v>
+        <v>0.03340793723617419</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>144</v>
+      </c>
+      <c r="J29" t="n">
+        <v>155</v>
+      </c>
+      <c r="K29" t="n">
+        <v>155.3206586559511</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1745555357.95114</v>
+        <v>1967635879.482512</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1156969414572128</v>
+        <v>0.1176140622670209</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02886766163511779</v>
+        <v>0.03793900419209521</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1226891572.259957</v>
+        <v>1044214972.146481</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08654706869988765</v>
+        <v>0.1121550573946861</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04504614090382515</v>
+        <v>0.03589454525312726</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1856206702.126274</v>
+        <v>1492590126.399024</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1099856615874947</v>
+        <v>0.08492599155770619</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03544408723870723</v>
+        <v>0.03658258090838329</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1982911181.942695</v>
+        <v>2541193095.624396</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1643189854937618</v>
+        <v>0.1899147336904567</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05261493788458273</v>
+        <v>0.04046356842168957</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1074783749.497213</v>
+        <v>1134052024.723644</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1172778950385471</v>
+        <v>0.09171207670196492</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02536938935019914</v>
+        <v>0.02365369360607179</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1194127088.970546</v>
+        <v>947589208.6731112</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1061873563507367</v>
+        <v>0.116783750886013</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03911671881723499</v>
+        <v>0.03504094989306879</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1966795627.373017</v>
+        <v>2652391127.760044</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1490576879553643</v>
+        <v>0.1669729641200218</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02502743838487565</v>
+        <v>0.02158562406340617</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2119278719.065174</v>
+        <v>1801583304.434578</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07156777435815201</v>
+        <v>0.08183731414249813</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02862206161546252</v>
+        <v>0.02904885056473214</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1354664142.379808</v>
+        <v>1543472948.491949</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1087299516392666</v>
+        <v>0.09082139546059663</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02703365970126765</v>
+        <v>0.03964679018432148</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1957080821.254324</v>
+        <v>1389198936.7035</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1279503321927627</v>
+        <v>0.1652875434662527</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02975242008551629</v>
+        <v>0.02249199674825106</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1652777678.193039</v>
+        <v>1427100551.368927</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1194725781137608</v>
+        <v>0.1569016012027882</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05186785306951825</v>
+        <v>0.04261862821223471</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2406376768.41485</v>
+        <v>2569520367.557327</v>
       </c>
       <c r="F41" t="n">
-        <v>0.137087344854204</v>
+        <v>0.1262327916414191</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0415045405289981</v>
+        <v>0.04421248315288909</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1913,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2675923293.340242</v>
+        <v>4048083727.26409</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1164406700434452</v>
+        <v>0.09120989614284791</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03491643782095558</v>
+        <v>0.02886773900886726</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>56</v>
+      </c>
+      <c r="J42" t="n">
+        <v>155</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2734100329.436936</v>
+        <v>3040878009.517581</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1311243305829941</v>
+        <v>0.174836193336924</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01759939917864709</v>
+        <v>0.01765117560558971</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1952458577.016769</v>
+        <v>2122671540.353855</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08203370009432348</v>
+        <v>0.06365366314205669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02483443305402053</v>
+        <v>0.02326342492379342</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1534547147.380377</v>
+        <v>2221292615.967131</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1194346777104217</v>
+        <v>0.1636283430386863</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0393491456180686</v>
+        <v>0.04316602072002028</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4382366688.670615</v>
+        <v>5517437666.04975</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1462351420182655</v>
+        <v>0.1386172871231417</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03900306124174788</v>
+        <v>0.05712588172249004</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>88</v>
+      </c>
+      <c r="J46" t="n">
+        <v>154</v>
+      </c>
+      <c r="K46" t="n">
+        <v>138.4634770887076</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4817747041.727468</v>
+        <v>3833885455.073558</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1961289381697484</v>
+        <v>0.1237801004463114</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04914788540906925</v>
+        <v>0.03928158988357681</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>68</v>
+      </c>
+      <c r="J47" t="n">
+        <v>155</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4655997200.946604</v>
+        <v>4492769359.758649</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06877795816638831</v>
+        <v>0.0881035343004348</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03713366194556462</v>
+        <v>0.03033268304912436</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>68</v>
+      </c>
+      <c r="J48" t="n">
+        <v>155</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1934918349.625498</v>
+        <v>1684646779.074445</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1671173981124777</v>
+        <v>0.1661443283140073</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03723768463811985</v>
+        <v>0.04291462953068529</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3117827560.752572</v>
+        <v>3673068944.692676</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1534632497294112</v>
+        <v>0.1176286047441658</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05336605743876267</v>
+        <v>0.04150922985166193</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>51</v>
+      </c>
+      <c r="J50" t="n">
+        <v>155</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1092728044.386255</v>
+        <v>932577821.2964746</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1432654800541498</v>
+        <v>0.1900186706377413</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05216327381785808</v>
+        <v>0.05331239905311998</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3393100458.060472</v>
+        <v>3772489116.530719</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1067966677853978</v>
+        <v>0.08629763579075979</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0477168984725727</v>
+        <v>0.05742689724204428</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>113</v>
+      </c>
+      <c r="J52" t="n">
+        <v>155</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3674939441.885934</v>
+        <v>3159766206.74105</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1789943206799514</v>
+        <v>0.1556789239289731</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02510792400762141</v>
+        <v>0.02943949329712373</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3520750244.48606</v>
+        <v>4725772318.463005</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1062105968932678</v>
+        <v>0.11759891209472</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04823462365269071</v>
+        <v>0.04855167625032433</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>74</v>
+      </c>
+      <c r="J54" t="n">
+        <v>155</v>
+      </c>
+      <c r="K54" t="n">
+        <v>140.4917959248286</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3986128863.514548</v>
+        <v>4979388022.344514</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1522822718785252</v>
+        <v>0.1415634885908852</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03161930161062099</v>
+        <v>0.02333000461279766</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>71</v>
+      </c>
+      <c r="J55" t="n">
+        <v>154</v>
+      </c>
+      <c r="K55" t="n">
+        <v>129.193599043578</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1141205139.172924</v>
+        <v>1311237388.77114</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1260532041572039</v>
+        <v>0.1308503513116436</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04323520057208841</v>
+        <v>0.04033717382094552</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4100933900.213704</v>
+        <v>4437609300.981289</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1299798068612768</v>
+        <v>0.1300704878380631</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01927652761732328</v>
+        <v>0.02113348190111557</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>63</v>
+      </c>
+      <c r="J57" t="n">
+        <v>154</v>
+      </c>
+      <c r="K57" t="n">
+        <v>119.2889656829502</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1625074570.589506</v>
+        <v>1664963501.997559</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1428805964257896</v>
+        <v>0.185956600726082</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02789227542732133</v>
+        <v>0.03901454483514984</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3473752485.982379</v>
+        <v>3314584797.142108</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09250030039445672</v>
+        <v>0.1195804825198143</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04522183561580728</v>
+        <v>0.03698784563647511</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>75</v>
+      </c>
+      <c r="J59" t="n">
+        <v>153</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3665885955.359592</v>
+        <v>3225226463.45535</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1581589963379153</v>
+        <v>0.1281346342077793</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02079069451212008</v>
+        <v>0.03261088868255201</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2353552676.597965</v>
+        <v>2842933096.085803</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1411192754655484</v>
+        <v>0.1205676311946</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02883445194028871</v>
+        <v>0.02124232196117017</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1426123605.453259</v>
+        <v>1872129755.688936</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1236769188387178</v>
+        <v>0.1658473278593124</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03823587637789203</v>
+        <v>0.03802386931203643</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3426588024.823311</v>
+        <v>4020972949.23405</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08376181163965189</v>
+        <v>0.08001991986801674</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04140856900938103</v>
+        <v>0.03988032821380462</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>76</v>
+      </c>
+      <c r="J63" t="n">
+        <v>154</v>
+      </c>
+      <c r="K63" t="n">
+        <v>92.79009437338235</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4734452197.029352</v>
+        <v>5323683005.050781</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1651864543287167</v>
+        <v>0.1176988873061601</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03056093223472606</v>
+        <v>0.0355833442539949</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>77</v>
+      </c>
+      <c r="J64" t="n">
+        <v>154</v>
+      </c>
+      <c r="K64" t="n">
+        <v>130.2209629170308</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4821752639.986954</v>
+        <v>5981010695.392018</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1221418337770955</v>
+        <v>0.1734603779681262</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02919191444337172</v>
+        <v>0.02989522080064387</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>128</v>
+      </c>
+      <c r="J65" t="n">
+        <v>155</v>
+      </c>
+      <c r="K65" t="n">
+        <v>139.6044342125554</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4125210513.167596</v>
+        <v>5070149708.96289</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1489922020625437</v>
+        <v>0.1067821298968</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03779624725806514</v>
+        <v>0.03741985694123877</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>76</v>
+      </c>
+      <c r="J66" t="n">
+        <v>155</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3094525204.901168</v>
+        <v>3130700830.957826</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09893922746885461</v>
+        <v>0.09673447483574396</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0374025402552626</v>
+        <v>0.03668014448286334</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3701076818.669316</v>
+        <v>4869506695.048756</v>
       </c>
       <c r="F68" t="n">
-        <v>0.127539891960248</v>
+        <v>0.1190012109526575</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03497674998918365</v>
+        <v>0.04916126756503717</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>78</v>
+      </c>
+      <c r="J68" t="n">
+        <v>154</v>
+      </c>
+      <c r="K68" t="n">
+        <v>128.5817590436522</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1953310821.526351</v>
+        <v>2478310599.843102</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1312241860439875</v>
+        <v>0.1433861452368493</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0440432449053554</v>
+        <v>0.03720092986131165</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2909474151.136394</v>
+        <v>2424168743.100293</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06357419440756903</v>
+        <v>0.08435128016217266</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03709212947200291</v>
+        <v>0.04126196498123142</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4241857227.837078</v>
+        <v>5292404543.980677</v>
       </c>
       <c r="F71" t="n">
-        <v>0.128978801642793</v>
+        <v>0.1410723251483989</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03403652247013276</v>
+        <v>0.02091458248103424</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>122</v>
+      </c>
+      <c r="J71" t="n">
+        <v>154</v>
+      </c>
+      <c r="K71" t="n">
+        <v>138.4191108490955</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1661564179.592086</v>
+        <v>1863193018.093839</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06734843791763054</v>
+        <v>0.082379842148331</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03703100263905987</v>
+        <v>0.04400068647393587</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2790818402.380096</v>
+        <v>2523936949.087461</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09833071082338826</v>
+        <v>0.111874898481172</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03372564057388013</v>
+        <v>0.04536856941377271</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2868612165.59797</v>
+        <v>3228964836.119573</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1804980342765525</v>
+        <v>0.113912008076096</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03550584290041432</v>
+        <v>0.02213599633448163</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>47</v>
+      </c>
+      <c r="J74" t="n">
+        <v>153</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2396068678.156887</v>
+        <v>2163606679.08827</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1591065306313379</v>
+        <v>0.1257772248786125</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03351427330883774</v>
+        <v>0.03348699756155971</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3984285659.256682</v>
+        <v>4920343056.629045</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07831505225541029</v>
+        <v>0.1035995921052767</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0285826462141028</v>
+        <v>0.0263650018740219</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>71</v>
+      </c>
+      <c r="J76" t="n">
+        <v>154</v>
+      </c>
+      <c r="K76" t="n">
+        <v>112.461284588317</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2085136133.37608</v>
+        <v>1598164127.358624</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1371752305576309</v>
+        <v>0.1388131827349354</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02211394453276735</v>
+        <v>0.0200467614758777</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3794456191.959905</v>
+        <v>4680151910.459585</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1257211442322602</v>
+        <v>0.08608417170650982</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05667050827539714</v>
+        <v>0.04066508141316986</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>78</v>
+      </c>
+      <c r="J78" t="n">
+        <v>155</v>
+      </c>
+      <c r="K78" t="n">
+        <v>140.6990742478435</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1163693882.323943</v>
+        <v>1741837650.686738</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1368217395918379</v>
+        <v>0.1502617107990065</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02506439142003236</v>
+        <v>0.03477024247455215</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4613337218.674645</v>
+        <v>5460511437.594246</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08646529960076052</v>
+        <v>0.06890587021773188</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03627884505260891</v>
+        <v>0.02955341043513755</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>75</v>
+      </c>
+      <c r="J80" t="n">
+        <v>155</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3499329855.982446</v>
+        <v>3460750165.203555</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09479986728922653</v>
+        <v>0.1011016691425852</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02732006992840014</v>
+        <v>0.03168476045854323</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>71</v>
+      </c>
+      <c r="J81" t="n">
+        <v>154</v>
+      </c>
+      <c r="K81" t="n">
+        <v>65.01432339863331</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5363609485.282143</v>
+        <v>3689018834.343622</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1420174791285025</v>
+        <v>0.1755675403414557</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01823309531622736</v>
+        <v>0.01810858898168848</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>113</v>
+      </c>
+      <c r="J82" t="n">
+        <v>154</v>
+      </c>
+      <c r="K82" t="n">
+        <v>90.54717858262408</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2374851783.124333</v>
+        <v>1924959467.12973</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1199545008376575</v>
+        <v>0.1049466693240517</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03514110014655503</v>
+        <v>0.03597575232125547</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2241256841.232271</v>
+        <v>1927198598.981477</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09086699553856042</v>
+        <v>0.1103904155494906</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03207038171112752</v>
+        <v>0.05139031514558487</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3031600789.457314</v>
+        <v>2587279097.872649</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1327373247373589</v>
+        <v>0.1806224599341118</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05233430714181091</v>
+        <v>0.03977033250581772</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1808757004.705648</v>
+        <v>2690448901.523738</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1595321245358381</v>
+        <v>0.1486832444081335</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02348863238102031</v>
+        <v>0.01666837996689772</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1231775296.429068</v>
+        <v>1318356719.419985</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1676409705575377</v>
+        <v>0.1162151087638006</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04408850307480262</v>
+        <v>0.031916842260627</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2570496171.970341</v>
+        <v>2706176074.828533</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1291576803068945</v>
+        <v>0.1174860312394886</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0301927421679983</v>
+        <v>0.02906076897355589</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>22</v>
+      </c>
+      <c r="J88" t="n">
+        <v>153</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2671749826.916281</v>
+        <v>2270811611.276968</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09663436837898352</v>
+        <v>0.0990711047582309</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02665509393431708</v>
+        <v>0.04033426767621695</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2021138695.638376</v>
+        <v>2135830136.138243</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09328407677847331</v>
+        <v>0.08905681741530772</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05124339050341762</v>
+        <v>0.04252927418181746</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1784287846.880446</v>
+        <v>2012495507.848144</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1214040068519699</v>
+        <v>0.1744718613648306</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0398651124211848</v>
+        <v>0.04387594600352187</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2195265888.340802</v>
+        <v>2844431097.286119</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1001304177718048</v>
+        <v>0.08759371159221629</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02936564231943057</v>
+        <v>0.03356954015139299</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4368456925.433375</v>
+        <v>3615528995.384986</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09328320696182488</v>
+        <v>0.1059989393035589</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05280062437323874</v>
+        <v>0.04188380537674777</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>70</v>
+      </c>
+      <c r="J93" t="n">
+        <v>154</v>
+      </c>
+      <c r="K93" t="n">
+        <v>77.2059591403406</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2112002807.420938</v>
+        <v>1628135207.70812</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1130528512658534</v>
+        <v>0.141939286075721</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0393988172497516</v>
+        <v>0.03929783453355229</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2683945526.356352</v>
+        <v>2678987579.478392</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1321291486216221</v>
+        <v>0.1178654669603104</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04073856942445542</v>
+        <v>0.03908046098857716</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2131261450.773699</v>
+        <v>1644407814.848334</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1161904752875158</v>
+        <v>0.1098622452101626</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03897168284471422</v>
+        <v>0.04028347080434666</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4745593490.586895</v>
+        <v>3416531928.896874</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1729695897886499</v>
+        <v>0.1310624715860526</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01825955431666566</v>
+        <v>0.02590748686204431</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>74</v>
+      </c>
+      <c r="J97" t="n">
+        <v>155</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3751686083.511096</v>
+        <v>3818866284.971379</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1144541011823265</v>
+        <v>0.07950392307526377</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03155789872763941</v>
+        <v>0.03247884562961796</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>36</v>
+      </c>
+      <c r="J98" t="n">
+        <v>155</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2112513529.31313</v>
+        <v>2686172666.356334</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1317577797204165</v>
+        <v>0.1119508656341278</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02821057199049263</v>
+        <v>0.02320453253402644</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4010396107.014234</v>
+        <v>4112560565.841044</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1239635710844191</v>
+        <v>0.1337655766292686</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01818694302699514</v>
+        <v>0.02791886977834562</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>64</v>
+      </c>
+      <c r="J100" t="n">
+        <v>155</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3176064364.498724</v>
+        <v>2475855890.85861</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1418615098556278</v>
+        <v>0.1525268895229607</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03753915142920328</v>
+        <v>0.05580077190750872</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
